--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nodal-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Nodal</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nodal</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H2">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I2">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J2">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N2">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q2">
-        <v>1.205472867396</v>
+        <v>2.004857960445</v>
       </c>
       <c r="R2">
-        <v>10.849255806564</v>
+        <v>18.043721644005</v>
       </c>
       <c r="S2">
-        <v>0.1564307164254879</v>
+        <v>0.1861829985144149</v>
       </c>
       <c r="T2">
-        <v>0.1564307164254879</v>
+        <v>0.1861829985144149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H3">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I3">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J3">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q3">
-        <v>0.329751476472</v>
+        <v>0.4108043273400001</v>
       </c>
       <c r="R3">
-        <v>2.967763288248</v>
+        <v>3.697238946060001</v>
       </c>
       <c r="S3">
-        <v>0.04279089235604686</v>
+        <v>0.03814972580395762</v>
       </c>
       <c r="T3">
-        <v>0.04279089235604685</v>
+        <v>0.03814972580395761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H4">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I4">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J4">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N4">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q4">
-        <v>1.025017514658</v>
+        <v>1.959211564515</v>
       </c>
       <c r="R4">
-        <v>9.225157631922</v>
+        <v>17.632904080635</v>
       </c>
       <c r="S4">
-        <v>0.1330135488764598</v>
+        <v>0.181944003516616</v>
       </c>
       <c r="T4">
-        <v>0.1330135488764598</v>
+        <v>0.181944003516616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H5">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I5">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J5">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N5">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q5">
-        <v>0.559302129642</v>
+        <v>0.844906013955</v>
       </c>
       <c r="R5">
-        <v>5.033719166778</v>
+        <v>7.604154125595</v>
       </c>
       <c r="S5">
-        <v>0.07257901459631765</v>
+        <v>0.07846298253771951</v>
       </c>
       <c r="T5">
-        <v>0.07257901459631763</v>
+        <v>0.07846298253771949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H6">
         <v>2.866893</v>
       </c>
       <c r="I6">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J6">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N6">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q6">
-        <v>1.228841443288667</v>
+        <v>1.640490645567</v>
       </c>
       <c r="R6">
-        <v>11.059572989598</v>
+        <v>14.764415810103</v>
       </c>
       <c r="S6">
-        <v>0.1594631887171536</v>
+        <v>0.1523456890475765</v>
       </c>
       <c r="T6">
-        <v>0.1594631887171536</v>
+        <v>0.1523456890475764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H7">
         <v>2.866893</v>
       </c>
       <c r="I7">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J7">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.055252</v>
       </c>
       <c r="O7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q7">
-        <v>0.3361438413373333</v>
+        <v>0.3361438413373334</v>
       </c>
       <c r="R7">
         <v>3.025294572036</v>
       </c>
       <c r="S7">
-        <v>0.04362041099772087</v>
+        <v>0.03121631035569583</v>
       </c>
       <c r="T7">
-        <v>0.04362041099772086</v>
+        <v>0.03121631035569582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H8">
         <v>2.866893</v>
       </c>
       <c r="I8">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J8">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N8">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O8">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P8">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q8">
-        <v>1.044887891031</v>
+        <v>1.603140126475667</v>
       </c>
       <c r="R8">
-        <v>9.403991019278997</v>
+        <v>14.428261138281</v>
       </c>
       <c r="S8">
-        <v>0.1355920699661853</v>
+        <v>0.148877098365496</v>
       </c>
       <c r="T8">
-        <v>0.1355920699661853</v>
+        <v>0.148877098365496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H9">
         <v>2.866893</v>
       </c>
       <c r="I9">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J9">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N9">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q9">
-        <v>0.5701444261523333</v>
+        <v>0.6913509284063333</v>
       </c>
       <c r="R9">
-        <v>5.131299835370999</v>
+        <v>6.222158355657</v>
       </c>
       <c r="S9">
-        <v>0.07398598795646696</v>
+        <v>0.0642029467503251</v>
       </c>
       <c r="T9">
-        <v>0.07398598795646696</v>
+        <v>0.06420294675032509</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H10">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I10">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J10">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N10">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q10">
-        <v>0.1985383817806667</v>
+        <v>0.490598826278</v>
       </c>
       <c r="R10">
-        <v>1.786845436026</v>
+        <v>4.415389436501999</v>
       </c>
       <c r="S10">
-        <v>0.02576374976153177</v>
+        <v>0.04555991613681022</v>
       </c>
       <c r="T10">
-        <v>0.02576374976153177</v>
+        <v>0.04555991613681021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H11">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I11">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J11">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.055252</v>
       </c>
       <c r="O11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q11">
-        <v>0.05430924768133333</v>
+        <v>0.1005258850248889</v>
       </c>
       <c r="R11">
-        <v>0.488783229132</v>
+        <v>0.904732965224</v>
       </c>
       <c r="S11">
-        <v>0.007047553497966378</v>
+        <v>0.009335429776828115</v>
       </c>
       <c r="T11">
-        <v>0.007047553497966377</v>
+        <v>0.009335429776828113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H12">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I12">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J12">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N12">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O12">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P12">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q12">
-        <v>0.1688178341969999</v>
+        <v>0.4794289236171111</v>
       </c>
       <c r="R12">
-        <v>1.519360507773</v>
+        <v>4.314860312554</v>
       </c>
       <c r="S12">
-        <v>0.02190700053322789</v>
+        <v>0.04452261274098419</v>
       </c>
       <c r="T12">
-        <v>0.0219070005332279</v>
+        <v>0.04452261274098418</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H13">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I13">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J13">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N13">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P13">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q13">
-        <v>0.09211566908633331</v>
+        <v>0.2067527510375556</v>
       </c>
       <c r="R13">
-        <v>0.8290410217769999</v>
+        <v>1.860774759338</v>
       </c>
       <c r="S13">
-        <v>0.01195358311159289</v>
+        <v>0.01920028645357613</v>
       </c>
       <c r="T13">
-        <v>0.01195358311159289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.804863</v>
-      </c>
-      <c r="I14">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J14">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.285895333333333</v>
-      </c>
-      <c r="N14">
-        <v>3.857686</v>
-      </c>
-      <c r="O14">
-        <v>0.3864259878905995</v>
-      </c>
-      <c r="P14">
-        <v>0.3864259878905995</v>
-      </c>
-      <c r="Q14">
-        <v>0.3449898585575555</v>
-      </c>
-      <c r="R14">
-        <v>3.104908727018</v>
-      </c>
-      <c r="S14">
-        <v>0.04476833298642622</v>
-      </c>
-      <c r="T14">
-        <v>0.04476833298642622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.804863</v>
-      </c>
-      <c r="I15">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J15">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.3517506666666667</v>
-      </c>
-      <c r="N15">
-        <v>1.055252</v>
-      </c>
-      <c r="O15">
-        <v>0.1057050253891921</v>
-      </c>
-      <c r="P15">
-        <v>0.1057050253891921</v>
-      </c>
-      <c r="Q15">
-        <v>0.09437036560844445</v>
-      </c>
-      <c r="R15">
-        <v>0.849333290476</v>
-      </c>
-      <c r="S15">
-        <v>0.01224616853745801</v>
-      </c>
-      <c r="T15">
-        <v>0.01224616853745801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.804863</v>
-      </c>
-      <c r="I16">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J16">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.093401</v>
-      </c>
-      <c r="N16">
-        <v>3.280203</v>
-      </c>
-      <c r="O16">
-        <v>0.328579279069553</v>
-      </c>
-      <c r="P16">
-        <v>0.3285792790695531</v>
-      </c>
-      <c r="Q16">
-        <v>0.2933460030209999</v>
-      </c>
-      <c r="R16">
-        <v>2.640114027189</v>
-      </c>
-      <c r="S16">
-        <v>0.03806665969368015</v>
-      </c>
-      <c r="T16">
-        <v>0.03806665969368016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.804863</v>
-      </c>
-      <c r="I17">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J17">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.5966156666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.789847</v>
-      </c>
-      <c r="O17">
-        <v>0.1792897076506553</v>
-      </c>
-      <c r="P17">
-        <v>0.1792897076506553</v>
-      </c>
-      <c r="Q17">
-        <v>0.1600646251067778</v>
-      </c>
-      <c r="R17">
-        <v>1.440581625961</v>
-      </c>
-      <c r="S17">
-        <v>0.02077112198627779</v>
-      </c>
-      <c r="T17">
-        <v>0.02077112198627779</v>
+        <v>0.01920028645357613</v>
       </c>
     </row>
   </sheetData>
